--- a/biology/Botanique/Angiospermes_basales/Angiospermes_basales.xlsx
+++ b/biology/Botanique/Angiospermes_basales/Angiospermes_basales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Angiospermes basales (en anglais Basal angiosperms), encore appelées ANA (anciennement ANITA), sont les plantes à fleurs (Angiospermes) les plus archaïques (fleur spiralée, périanthe à tépales, pollen monoaperturé, carpelles libres).
-L'acronyme ANITA était construit sur les initiales des différents taxons (ordres et familles) que comprenait cet ensemble de plantes[1], à savoir :
+L'acronyme ANITA était construit sur les initiales des différents taxons (ordres et familles) que comprenait cet ensemble de plantes, à savoir :
 Amborellales Nymphaeales Illiciaceae  Trimeniaceae Austrobaileyales
-Cependant, selon la classification APG IV (2016), les Illiaceae et les Trimeniaceae (aujourd'hui appelée les Schisandracées) ont été intégrées à l'ordre des Austrobaileyales, d'où la dénomination actuelle de clade ANA[2].
+Cependant, selon la classification APG IV (2016), les Illiaceae et les Trimeniaceae (aujourd'hui appelée les Schisandracées) ont été intégrées à l'ordre des Austrobaileyales, d'où la dénomination actuelle de clade ANA.
 Elles regroupent 175 espèces situées dans les groupes précités.
 Cependant, il s'agit d'un groupe paraphylétique, raison pour laquelle il est peu utilisé dans la littérature scientifique.
 Les analyses moléculaires ont permis aux botanistes de préciser la structure des Protoangiospermes.
@@ -517,7 +529,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique, situerait les Angiospermes basales comme suit :
 clade des Angiospermes = sous-classe des Magnoliidae
@@ -535,8 +549,8 @@
 clade probable frère des Dicotylédones vraies
 ordre des Ceratophyllales
 clade des « Dicotylédones vraies » ou Eudicotylédones (anglais eudicots ou eudicotyledons)
-La classification phylogénétique APG II (2003)[3] et classification phylogénétique APG III (2009)[4] ont ensuite déconstruit ANITA, le groupe paraphylétique se structurant de la manière suivante :
-« A (Amborellales), N  (Nymphaeales), puis l'ensemble monophylétique ITA (Illiciacées, Trimeniacées, Austrobaileyacées) formant l'ordre des Austrobaileyales, en groupe frère des Euangiospermes »[1].
+La classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) ont ensuite déconstruit ANITA, le groupe paraphylétique se structurant de la manière suivante :
+« A (Amborellales), N  (Nymphaeales), puis l'ensemble monophylétique ITA (Illiciacées, Trimeniacées, Austrobaileyacées) formant l'ordre des Austrobaileyales, en groupe frère des Euangiospermes ».
 </t>
         </is>
       </c>
